--- a/etude_salaire_2019_paysagiste_concepteur_03_12_2019.xlsx
+++ b/etude_salaire_2019_paysagiste_concepteur_03_12_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="460" windowWidth="38400" windowHeight="22100" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-260" yWindow="460" windowWidth="38400" windowHeight="22100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="355">
   <si>
     <t>Séquentiel</t>
   </si>
@@ -1097,6 +1097,9 @@
   </si>
   <si>
     <t>plus de 39000</t>
+  </si>
+  <si>
+    <t>0 - 12000</t>
   </si>
 </sst>
 </file>
@@ -1884,6 +1887,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$J$3:$J$8</c:f>
@@ -2178,6 +2239,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$M$3:$M$8</c:f>
@@ -2417,12 +2536,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2431,7 +2547,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Histogram</a:t>
+              <a:t>Nombre de répondants par tranches de revenus annuels nets</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2450,12 +2566,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2481,7 +2594,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2489,13 +2605,69 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet11!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-12000</c:v>
+                  <c:v>0 - 12000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12000 - 15000</c:v>
@@ -2592,15 +2764,16 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="1299202432"/>
         <c:axId val="1299116992"/>
       </c:barChart>
@@ -2618,12 +2791,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2632,11 +2802,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Rémunération</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> annuelle nette</a:t>
+                  <a:t>Revenus annuels nets</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2655,12 +2821,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2679,7 +2842,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2695,10 +2858,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2722,6 +2882,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2729,12 +2903,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2762,12 +2933,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2795,10 +2963,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2830,7 +2995,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5608,33 +5773,27 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5649,7 +5808,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5657,7 +5816,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5665,17 +5824,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -5684,9 +5840,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5709,35 +5864,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5746,33 +5901,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5788,21 +5942,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5836,17 +5985,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5855,14 +6004,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5874,26 +6023,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5907,17 +6050,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5926,17 +6068,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5945,17 +6087,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5964,27 +6105,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5992,11 +6130,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6004,17 +6150,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6023,12 +6169,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6037,14 +6180,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6053,10 +6196,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -6065,7 +6205,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6086,10 +6226,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -6098,14 +6235,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -18963,8 +19094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N163"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20307,8 +20438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20322,8 +20453,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
-        <v>-12000</v>
+      <c r="A2" s="25" t="s">
+        <v>354</v>
       </c>
       <c r="B2" s="22">
         <v>6</v>
